--- a/data/hotels_by_city/Houston/Houston_shard_645.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_645.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d530323-Reviews-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-Stafford-Sugarland-Area.h1160187.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1082 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r543236566-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>530323</t>
+  </si>
+  <si>
+    <t>543236566</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r537480361-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>537480361</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r528191402-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>528191402</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Family Operated and it shows!</t>
+  </si>
+  <si>
+    <t>First, this hotel is located in a great place- kind of industrial park area that doesn't have any other hotels right around it &amp; not overly busy. Second, it's family owned &amp; operated the right way- front desk attendant was the owner when I got in at 1am &amp; he knew who to expect &amp; where I had requested my room to be.Complimentary WiFi was pretty darn good @ 10mb up &amp; down.Remember that it's a 2 star property at a very fair rate &amp; it's a great choice if that's what you're looking for. The only two things I'd like to see are: A charging outlet on the nightstands, and A little more water pressure at the sink &amp; shower.No elevator btw, so choose 1st floor if you don't want to deal with stairs. I'd gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>First, this hotel is located in a great place- kind of industrial park area that doesn't have any other hotels right around it &amp; not overly busy. Second, it's family owned &amp; operated the right way- front desk attendant was the owner when I got in at 1am &amp; he knew who to expect &amp; where I had requested my room to be.Complimentary WiFi was pretty darn good @ 10mb up &amp; down.Remember that it's a 2 star property at a very fair rate &amp; it's a great choice if that's what you're looking for. The only two things I'd like to see are: A charging outlet on the nightstands, and A little more water pressure at the sink &amp; shower.No elevator btw, so choose 1st floor if you don't want to deal with stairs. I'd gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r517751176-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>517751176</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r496304727-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>496304727</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r494849906-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>494849906</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r489670400-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>489670400</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r484703624-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>484703624</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Very nice staff.</t>
+  </si>
+  <si>
+    <t>Good stay for the price. Staff very friendly and helpful. Outside area had scattered trash. Inside was clean and nice. Up to date tv, comfy bed, but otherwise appearance needs updating. I'd stay here again overall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r482202033-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>482202033</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>I had a fabulous 2 night stay at this hotel. It was very clean and neat. My kids and I enjoyed the free breakfast(Big homemade Waffles with syrup and other options) We also enjoyed the swimming pool and Jacuzzi. Overall great stay! Very friendly staff. Best inexpensive hotel I've stayed at in Houston. Thank you for making our stay great Super 8! Can't wait to come again!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r471425010-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>471425010</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r471358052-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>471358052</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r468173585-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>468173585</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Rodeo trip for 2</t>
+  </si>
+  <si>
+    <t>Would come back and stay here again. Front desk service was very helpful. Only trouble was laundry services were out or order.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r431058125-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>431058125</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r430642082-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>430642082</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r420834474-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>420834474</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r393610162-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>393610162</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r389425935-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>389425935</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r372138884-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>372138884</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r357631622-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>357631622</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r356909558-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>356909558</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Another Super 8 cliche</t>
+  </si>
+  <si>
+    <t>It's a Super 8 and of course it's cheap.  And of course it fits the cliche:  Paper thin towels, carpets so filthy they feel sticky when you walk on them, sketchy area and so on.  Even the shower head was clogged.  Love yourself, try to spend an extra buck and go somewhere else if you can.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r354376063-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>354376063</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r348490968-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>348490968</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>In the area for a YRDG roller derby bootcamp and needed a room close to the venue for a quick overnight stay. This room was extremely affordable (especially splitting it with 2 other teammates), quiet, and offered complimentary coffee and breakfast (free waffles and bananas, ya'll!!!). We checked in late and left early and it was still a bargain! A+++ Nice people. Clean and quiet room. Can't beat the price.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r339811819-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>339811819</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Misinformation Received</t>
+  </si>
+  <si>
+    <t>when I booked I requested a handicap room with a walk in/roll in shower.  I was told no problem.  When I arrived to check in the room had a tub with handicap handles.  When I called the desk to get the correct room, I was informed that there were no rooms with walk in/roll in showers.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r338316899-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>338316899</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Always an excellent place to stay</t>
+  </si>
+  <si>
+    <t>My wif and I have stayed here many time during the recent years and it is always a pleasure. The management and staff have always been pleasant and very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r327012425-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>327012425</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r321693900-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>321693900</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>It was a non smoking area which was good. The breakfast was good as well. It was cleaned, plenty of towels, channels worked,  restroom was big n roomy. Beds were comfortable , no holes in the walls. It's was safe and close to restaurants not other stores. I'll go back!!! I was a satisfying customers. Thanks!!!!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r311887783-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>311887783</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r298964312-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>298964312</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r292892137-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>292892137</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>nice location and easy to get to.really nice setting and beautifully landscaped. clean inside and out. rooms were spacious with really comfortable beds.everything worked like it should.host were so friendly and helpful. breakfast was fresh and very good. we would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r292437943-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>292437943</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r278857187-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>278857187</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing fancy, but room was clean and comfortable.  Good proximity to both downtown and the Southland.  All-in-all, a great value. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r275409451-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>275409451</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Very nice for a Super 8!!!</t>
+  </si>
+  <si>
+    <t>I stayed here Memorial Day night because there were no truck stops close in that area. When I arrived I was greeted quickly and politely. Check in was super easy and very fast. The gentleman behind the desk made me feel welcome and that can be hard to come by at some hotels. 
+I was on the second floor in a non smoking room. When I opened the door I immediately noticed the size of the room was much larger than your average hotel room in this price range. There was a sitting area with a couch and a desk and still plenty of room left for the king size bed. There was a flat screen tv with satellite and a mini fridge with a microwave. The room also had a coffe maker and an ironing board of you needed it. Most importantly, the room was clean!! There were no stale smoke smells or moldy smells unlike some other chains. The bathroom was very clean and there was even a bathmat for the shower instead of the usual slick floor. 
+That night was the night that all the storms came through resulting in major flooding in the area. I feel it is notable that despite all the rain there was never any issues with the room. 
+There is one set of laundry machines outside on the first floor. They were average size and worked efficiently. 
+I did not try the...I stayed here Memorial Day night because there were no truck stops close in that area. When I arrived I was greeted quickly and politely. Check in was super easy and very fast. The gentleman behind the desk made me feel welcome and that can be hard to come by at some hotels. I was on the second floor in a non smoking room. When I opened the door I immediately noticed the size of the room was much larger than your average hotel room in this price range. There was a sitting area with a couch and a desk and still plenty of room left for the king size bed. There was a flat screen tv with satellite and a mini fridge with a microwave. The room also had a coffe maker and an ironing board of you needed it. Most importantly, the room was clean!! There were no stale smoke smells or moldy smells unlike some other chains. The bathroom was very clean and there was even a bathmat for the shower instead of the usual slick floor. That night was the night that all the storms came through resulting in major flooding in the area. I feel it is notable that despite all the rain there was never any issues with the room. There is one set of laundry machines outside on the first floor. They were average size and worked efficiently. I did not try the breakfast so I cannot comment on that.Check out was fast and easy.Overall great experience with a clean room, warm hospitality and a comfortable bed. If I'm ever in the area overnight again I would not hesitate to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I stayed here Memorial Day night because there were no truck stops close in that area. When I arrived I was greeted quickly and politely. Check in was super easy and very fast. The gentleman behind the desk made me feel welcome and that can be hard to come by at some hotels. 
+I was on the second floor in a non smoking room. When I opened the door I immediately noticed the size of the room was much larger than your average hotel room in this price range. There was a sitting area with a couch and a desk and still plenty of room left for the king size bed. There was a flat screen tv with satellite and a mini fridge with a microwave. The room also had a coffe maker and an ironing board of you needed it. Most importantly, the room was clean!! There were no stale smoke smells or moldy smells unlike some other chains. The bathroom was very clean and there was even a bathmat for the shower instead of the usual slick floor. 
+That night was the night that all the storms came through resulting in major flooding in the area. I feel it is notable that despite all the rain there was never any issues with the room. 
+There is one set of laundry machines outside on the first floor. They were average size and worked efficiently. 
+I did not try the...I stayed here Memorial Day night because there were no truck stops close in that area. When I arrived I was greeted quickly and politely. Check in was super easy and very fast. The gentleman behind the desk made me feel welcome and that can be hard to come by at some hotels. I was on the second floor in a non smoking room. When I opened the door I immediately noticed the size of the room was much larger than your average hotel room in this price range. There was a sitting area with a couch and a desk and still plenty of room left for the king size bed. There was a flat screen tv with satellite and a mini fridge with a microwave. The room also had a coffe maker and an ironing board of you needed it. Most importantly, the room was clean!! There were no stale smoke smells or moldy smells unlike some other chains. The bathroom was very clean and there was even a bathmat for the shower instead of the usual slick floor. That night was the night that all the storms came through resulting in major flooding in the area. I feel it is notable that despite all the rain there was never any issues with the room. There is one set of laundry machines outside on the first floor. They were average size and worked efficiently. I did not try the breakfast so I cannot comment on that.Check out was fast and easy.Overall great experience with a clean room, warm hospitality and a comfortable bed. If I'm ever in the area overnight again I would not hesitate to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r271552549-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>271552549</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>owner that cares</t>
+  </si>
+  <si>
+    <t>Hotel manager and his staff made my stay safe and peaceful. Property is well maintained and secured with cameras, my room was comfortable and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r260623269-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>260623269</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Super Super 8</t>
+  </si>
+  <si>
+    <t>I have stayed here weekly for over the past year Sunday through Friday. Owner (Harry) is onsite almost everyday so the facility is well run, and the desk staff is excellent. Rooms are clean and well kept. Best value.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r258991407-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>258991407</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r258955921-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>258955921</t>
+  </si>
+  <si>
+    <t>wvan- Super8 in Stafford is nice place to stay.</t>
+  </si>
+  <si>
+    <t>Very clean and nice people running the hotel.  No noise from outside so easy to sleep.  Stayed there for a week and rooms always clean with cheerful staff.  Great place to stay with easy access to main roads!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r240109150-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>240109150</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>my service was not as good as it use to be, but the room...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my service was not as good as it use to be, but the room was great and the location including the amenidties  and what I like best about the hotel its in a good spot and peaceful always get goog sleep wifi always work a/c and heat always work front office always friendly </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r240003538-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>240003538</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Pride in ownership</t>
+  </si>
+  <si>
+    <t>Found this hotel at last minute.  Was clean, well-maintained.  Family run.  Pride in ownership evident.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r235720003-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>235720003</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This was a great place to stay. The bed was very comfortable and the room was clean and fairly newly remodeled. Breakfast was typical for a continental breakfast but adequate.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r229101524-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>229101524</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r223251027-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>223251027</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r220248821-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>220248821</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r209475121-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>209475121</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r209057740-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>209057740</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>After my last stay at a Super 8 I almost didn't use it...</t>
+  </si>
+  <si>
+    <t>After my last stay at a Super 8 I almost didn't use it again but took a chance and am glad I did.  Nice staff and the room was well maintained.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r208584306-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>208584306</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r207022872-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207022872</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r206408662-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>206408662</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r206193195-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>206193195</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r201596028-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>201596028</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>a very clean, perfect, room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean motel! Clean room, clean bathroom, and very nice people! Would love to stay there again!! </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r199704990-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>199704990</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r199113072-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>199113072</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r195819955-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>195819955</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r194038793-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>194038793</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r192042139-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>192042139</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r185521330-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>185521330</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really did not expect much from this stay. It was just a hotel to spend the night, nothing fancy. Wow, was I wrong. I was greeted warmly, given my room with no issues, and told where my room was. When I walked in the room was HUGE, clean and welcoming. We had plenty of towels, a fridge, microwave, coffee pot, iron and ironing board. Very happy with our stay and would stay here again if given the chance. </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r185050061-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>185050061</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r184903896-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184903896</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r180344242-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>180344242</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r176692626-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>176692626</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Clean and neat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This motel is very clean. The hostess is sweet and helpful. We had a pleasant stay. Will definitely recommend to others. </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r175973530-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>175973530</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Budget But Clean</t>
+  </si>
+  <si>
+    <t>Location is in a commercial area but major freeways are close by. There are many restaurant options on Murphy Road. There's an on- site pool and all rooms have exterior entrances.  There are restaurants for every palate and you're 30 minutes from Houston (unless it's rush hour). The morning fare in the hotel lobby consists of cereal, waffle-maker and coffee.  There is a Subway nearby if you crave a breakfast sandwich. This hotel is definitely budget, one or two night stay, but it is clean, has a microwave and mini-fridge and front desk staff are friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r172275505-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172275505</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r172143885-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172143885</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r170840703-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>170840703</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r168484130-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>168484130</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Clean, quiet, average.</t>
+  </si>
+  <si>
+    <t>Stayed a Saturday night with 3 friends.  Location is quiet, away from everything.  Pool is tiny.  Manager was friendly.  Didn't try the breakfast.  Room was clean.  Bathroom looked remodeled.  Tv was nice with limited channels.  Wifi worked fine.  Ac was cold.  The room was advertised as 2 queens suite with a sofabed.  The beds were NOT queens and the sofa did not turn into a bed.  Beds were a bit too soft.  Microwave, fridge, hair dryer and iron worked fine.  After returning that evening, the parking lot was nearly full, but found a spot and never heard any noise thru the night.  Overall, a good stay.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r166828098-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>166828098</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r164742078-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>164742078</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r161005297-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>161005297</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Great Motel For Price</t>
+  </si>
+  <si>
+    <t>This motel was an outstanding value.  It has easy access if you are staying in the area with many restaurants close by.  The Staff was so friendly.  The property is clean and the room was spacious.  I would highly recommend this property for a value based motel stay.  Room was clean!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r158270804-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158270804</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r156316850-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>156316850</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Great value for the price and Super 8 motels</t>
+  </si>
+  <si>
+    <t>I had to attend a planning meeting for a new client and project and wanted to be near the offices, as a health and safety professional that travels alot, I was very impressed with the hotel. It was well maintained and had a large, clean room with a king size bed. The linens were clean but worn and the bed okay. Internet speed was fine during the day, but as more guests logged on, slowed down. I didn't like the long wait for traffic to allow a left turn onto Murphy Road. Even with the middle turn lane as a buffer zone, the numerous vehicles turning into the various commerical properties near by was a hazard. I found the small love seat in the room to be very comfortable, and spent alot of time 'laid back' reading various materials for the project. Please don't tell the boss..."maybe even napped".  The microwave, minifridge and coffee pot in the room helped, fill the void. Subway and What-a-burger close by, but need to travel for any resturants. The typical breakfast, fare...would have like to see bagels or english muffins added, only bread for toast. Good selection of fresh fruits. I will be staying there again as I return for meetings with the clients.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to attend a planning meeting for a new client and project and wanted to be near the offices, as a health and safety professional that travels alot, I was very impressed with the hotel. It was well maintained and had a large, clean room with a king size bed. The linens were clean but worn and the bed okay. Internet speed was fine during the day, but as more guests logged on, slowed down. I didn't like the long wait for traffic to allow a left turn onto Murphy Road. Even with the middle turn lane as a buffer zone, the numerous vehicles turning into the various commerical properties near by was a hazard. I found the small love seat in the room to be very comfortable, and spent alot of time 'laid back' reading various materials for the project. Please don't tell the boss..."maybe even napped".  The microwave, minifridge and coffee pot in the room helped, fill the void. Subway and What-a-burger close by, but need to travel for any resturants. The typical breakfast, fare...would have like to see bagels or english muffins added, only bread for toast. Good selection of fresh fruits. I will be staying there again as I return for meetings with the clients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r152724763-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>152724763</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r152138590-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>152138590</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r143655947-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>143655947</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Very nice for a Super 8!</t>
+  </si>
+  <si>
+    <t>Check-in was exceptionally friendly. Hotel seemed new. Rooms were huge for a Super 8! Few construction worker guests, but no seedy characters...  fridge, micro, and nice flatscreen tv. Couch in the King bed room, and large bathroom area. Only complaints were slowwww internet, and could use a new mattress, though the sheets and blankets were clean. Room was $59 and definitely a value. The good reviews are accurate: one of the best Super 8's I've stayed in. Also, if you like middle eastern food, check out Kabob Cafe, about 4 miles away. Definitely appreciated a relaxing night after all the Houston traffic!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r136377979-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>136377979</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Despite the nice, friendly staff, avoid at all costs.</t>
+  </si>
+  <si>
+    <t>The one positive thing I have to say about this place is that the staff were all very polite, pleasant and friendly, particularly the cleaning ladies. When our room had its numerous problems, they were at least addressed. Unfortunately, that's it in terms of the good about this hotel. In our room, the only thing that worked reliably was the air conditioning. The mini fridge was set on a bizarre schedule where it would spend several hours on, then several hours off. This was explained to us by the proprietors as a way to save money. Too bad it doesn't save any leftovers you might have put in there. Only one of the phones in the room worked. The television was broken, resulting in the interesting problem of the volume adjusting itself without input from the user. The towels felt like they had been made out of sandpaper. The continental breakfast was mediocre, and frequently ran out of food. The drink machine was mostly sold out, and when I did finally get a beverage, it had been expired for a year. Finally, the internet was spotty and prone to disconnecting at random. In short, friendly people, terrible hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The one positive thing I have to say about this place is that the staff were all very polite, pleasant and friendly, particularly the cleaning ladies. When our room had its numerous problems, they were at least addressed. Unfortunately, that's it in terms of the good about this hotel. In our room, the only thing that worked reliably was the air conditioning. The mini fridge was set on a bizarre schedule where it would spend several hours on, then several hours off. This was explained to us by the proprietors as a way to save money. Too bad it doesn't save any leftovers you might have put in there. Only one of the phones in the room worked. The television was broken, resulting in the interesting problem of the volume adjusting itself without input from the user. The towels felt like they had been made out of sandpaper. The continental breakfast was mediocre, and frequently ran out of food. The drink machine was mostly sold out, and when I did finally get a beverage, it had been expired for a year. Finally, the internet was spotty and prone to disconnecting at random. In short, friendly people, terrible hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r136263293-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>136263293</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Clean rooms for a reasonable price &amp; helpful staff! :)</t>
+  </si>
+  <si>
+    <t>We stayed here on a short notice after doing some exhausting school shopping and was so fortunate to find a hotel that was clean and cheap! Will defiantly be stayin here again! The staff was also very friendly and helpful! The area is very quite and parking I great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r129895134-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>129895134</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>The Motel is located close to Main Hwy and is really quiet. Outside grounds are maintained well and room was very clean. Comfortable king size bed with a Flat screen TV.Bathroom was clean and well maintained.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r34961986-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>34961986</t>
+  </si>
+  <si>
+    <t>07/16/2009</t>
+  </si>
+  <si>
+    <t>Terrible place to stay in</t>
+  </si>
+  <si>
+    <t>We had a terrible experience here. We lost all the cash we came in with on the very first night that we checked in.We suspect someone came in while we were sleeping after a long trip.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r6830986-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>6830986</t>
+  </si>
+  <si>
+    <t>02/21/2007</t>
+  </si>
+  <si>
+    <t>We would stay her again in a heartbeat!!</t>
+  </si>
+  <si>
+    <t>My son &amp; I stayed at this motel for 3 nights.  The room was very clean. We felt safe there, at times leaving our room door open during the day for warm Texas air! I was told from the owner that he built this motel only 2yrs. ago. He &amp; his wife were very freindly &amp; even allowed my son to print out our boarding passed ahead of time on their computer. There were fresh muffins, danish, toast, bananna's, cold cereal, orange juice, milk, coffee in the lounge every morning for breakfast. My son was able to use his laptop in the room.It is located on Murphy road, so it was a bit busy, but it was never that noisy that it bothered us at all.We sould stay there again &amp; even look up his new property in Richmond when we visit our son living there now.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>My son &amp; I stayed at this motel for 3 nights.  The room was very clean. We felt safe there, at times leaving our room door open during the day for warm Texas air! I was told from the owner that he built this motel only 2yrs. ago. He &amp; his wife were very freindly &amp; even allowed my son to print out our boarding passed ahead of time on their computer. There were fresh muffins, danish, toast, bananna's, cold cereal, orange juice, milk, coffee in the lounge every morning for breakfast. My son was able to use his laptop in the room.It is located on Murphy road, so it was a bit busy, but it was never that noisy that it bothered us at all.We sould stay there again &amp; even look up his new property in Richmond when we visit our son living there now.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1617,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1649,4922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" t="s">
+        <v>180</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>190</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" t="s">
+        <v>195</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>196</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>208</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>212</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>212</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>222</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>222</v>
+      </c>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" t="s">
+        <v>232</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>233</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>241</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" t="s">
+        <v>244</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>241</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" t="s">
+        <v>247</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>248</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>259</v>
+      </c>
+      <c r="J47" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" t="s">
+        <v>263</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>254</v>
+      </c>
+      <c r="O49" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" t="s">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>272</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>274</v>
+      </c>
+      <c r="J51" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>276</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>277</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>276</v>
+      </c>
+      <c r="O52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" t="s">
+        <v>282</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>283</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>285</v>
+      </c>
+      <c r="J54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>283</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>288</v>
+      </c>
+      <c r="J55" t="s">
+        <v>289</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>290</v>
+      </c>
+      <c r="O55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>292</v>
+      </c>
+      <c r="J56" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L56" t="s">
+        <v>295</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>296</v>
+      </c>
+      <c r="O56" t="s">
+        <v>82</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>296</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>301</v>
+      </c>
+      <c r="J58" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>296</v>
+      </c>
+      <c r="O58" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>304</v>
+      </c>
+      <c r="J59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>306</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>308</v>
+      </c>
+      <c r="J60" t="s">
+        <v>309</v>
+      </c>
+      <c r="K60" t="s">
+        <v>310</v>
+      </c>
+      <c r="L60" t="s">
+        <v>311</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O60" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>313</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>314</v>
+      </c>
+      <c r="J61" t="s">
+        <v>315</v>
+      </c>
+      <c r="K61" t="s">
+        <v>316</v>
+      </c>
+      <c r="L61" t="s">
+        <v>317</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>312</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>318</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>319</v>
+      </c>
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>321</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>323</v>
+      </c>
+      <c r="J63" t="s">
+        <v>324</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>321</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>326</v>
+      </c>
+      <c r="J64" t="s">
+        <v>327</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>321</v>
+      </c>
+      <c r="O64" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>329</v>
+      </c>
+      <c r="J65" t="s">
+        <v>330</v>
+      </c>
+      <c r="K65" t="s">
+        <v>331</v>
+      </c>
+      <c r="L65" t="s">
+        <v>332</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>333</v>
+      </c>
+      <c r="O65" t="s">
+        <v>146</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>335</v>
+      </c>
+      <c r="J66" t="s">
+        <v>336</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>333</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>338</v>
+      </c>
+      <c r="J67" t="s">
+        <v>339</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>340</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>342</v>
+      </c>
+      <c r="J68" t="s">
+        <v>343</v>
+      </c>
+      <c r="K68" t="s">
+        <v>344</v>
+      </c>
+      <c r="L68" t="s">
+        <v>345</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>346</v>
+      </c>
+      <c r="O68" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>347</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>348</v>
+      </c>
+      <c r="J69" t="s">
+        <v>349</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>350</v>
+      </c>
+      <c r="O69" t="s">
+        <v>146</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>352</v>
+      </c>
+      <c r="J70" t="s">
+        <v>353</v>
+      </c>
+      <c r="K70" t="s">
+        <v>354</v>
+      </c>
+      <c r="L70" t="s">
+        <v>355</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>350</v>
+      </c>
+      <c r="O70" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>357</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>358</v>
+      </c>
+      <c r="J71" t="s">
+        <v>359</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>360</v>
+      </c>
+      <c r="O71" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>362</v>
+      </c>
+      <c r="J72" t="s">
+        <v>363</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>360</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>364</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>365</v>
+      </c>
+      <c r="J73" t="s">
+        <v>366</v>
+      </c>
+      <c r="K73" t="s">
+        <v>367</v>
+      </c>
+      <c r="L73" t="s">
+        <v>368</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" t="s">
+        <v>371</v>
+      </c>
+      <c r="K74" t="s">
+        <v>372</v>
+      </c>
+      <c r="L74" t="s">
+        <v>373</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>374</v>
+      </c>
+      <c r="O74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" t="s">
+        <v>378</v>
+      </c>
+      <c r="K75" t="s">
+        <v>379</v>
+      </c>
+      <c r="L75" t="s">
+        <v>380</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>382</v>
+      </c>
+      <c r="J76" t="s">
+        <v>383</v>
+      </c>
+      <c r="K76" t="s">
+        <v>384</v>
+      </c>
+      <c r="L76" t="s">
+        <v>385</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>386</v>
+      </c>
+      <c r="O76" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>387</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>388</v>
+      </c>
+      <c r="J77" t="s">
+        <v>389</v>
+      </c>
+      <c r="K77" t="s">
+        <v>390</v>
+      </c>
+      <c r="L77" t="s">
+        <v>391</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>392</v>
+      </c>
+      <c r="O77" t="s">
+        <v>51</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>394</v>
+      </c>
+      <c r="J78" t="s">
+        <v>395</v>
+      </c>
+      <c r="K78" t="s">
+        <v>396</v>
+      </c>
+      <c r="L78" t="s">
+        <v>397</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>398</v>
+      </c>
+      <c r="O78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_645.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_645.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r566698428-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>530323</t>
+  </si>
+  <si>
+    <t>566698428</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>The rooms were way bigger and nicer than I expected for the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were way bigger and nicer than I expected for the price. The staff was very friendly. The rooms were so peaceful, big, and comfortable. The water pressure was even good in the rooms. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r563244578-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>563244578</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r543236566-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>530323</t>
-  </si>
-  <si>
     <t>543236566</t>
   </si>
   <si>
@@ -207,6 +243,33 @@
     <t>First, this hotel is located in a great place- kind of industrial park area that doesn't have any other hotels right around it &amp; not overly busy. Second, it's family owned &amp; operated the right way- front desk attendant was the owner when I got in at 1am &amp; he knew who to expect &amp; where I had requested my room to be.Complimentary WiFi was pretty darn good @ 10mb up &amp; down.Remember that it's a 2 star property at a very fair rate &amp; it's a great choice if that's what you're looking for. The only two things I'd like to see are: A charging outlet on the nightstands, and A little more water pressure at the sink &amp; shower.No elevator btw, so choose 1st floor if you don't want to deal with stairs. I'd gladly stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r521560197-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>521560197</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>very nice area room wasveryclean and the clerks very nice and friendly.booked online and was exactly what it said on line.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r521149984-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>521149984</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r517751176-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -216,9 +279,6 @@
     <t>08/26/2017</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r496304727-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -231,9 +291,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r494849906-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -252,6 +309,39 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r491084987-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>491084987</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Houston Stay</t>
+  </si>
+  <si>
+    <t>Hotel was extremely clean. It was also extremely quiet. Breakfast did not have many options. Coffee was good. It was convenient to our family and Wal-Mart.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r489898924-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>489898924</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Okay hotel</t>
+  </si>
+  <si>
+    <t>It is a good value for a low cost motel. Nothing really bad, nothing really good. Just average, which really isn't a bad thing.Oh, only one ice machine was say over by the office</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r489670400-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -261,12 +351,6 @@
     <t>06/01/2017</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r484703624-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -300,18 +384,39 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r481324396-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>481324396</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Model Car Show</t>
+  </si>
+  <si>
+    <t>The room was very clean and nice.  We hadn't had any plans on where we were going to stay but we did want to be close to the Stafford Event Center.  This Super 8 was just a couple blocks from the Event Center which really made it nice for travel.   I've found that most motel don't have very good pillows BUT I couldn't say that for this motel, the pillows were very good and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r471427749-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>471427749</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r471425010-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
     <t>471425010</t>
   </si>
   <si>
-    <t>03/30/2017</t>
-  </si>
-  <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r471358052-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -333,6 +438,42 @@
     <t>Would come back and stay here again. Front desk service was very helpful. Only trouble was laundry services were out or order.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r467967075-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>467967075</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Misleading and sour milk</t>
+  </si>
+  <si>
+    <t>We stayed here recently because their website says they have truck and bus parking.  What they don’t say is that the truck and bus parking is not on their property but curbside on the local street — more than a little misleading and in our case it resulted in our having to park out of sight of our RV.  The room was reasonably clean but there were signs of water damage on the ceiling that had not been repaired.I was surprised that with numerous cars in the parking lot there were no other guests in the breakfast room in the morning.  When my wife poured soured milk out of the container meant for cereal we understood why.  The breakfast was really sub-par for what we have received at other locations of this same chain.  Also — during the breakfast hours there was no attendant present to take care of needs — in our case plasticware for use eating the waffle.  Even after using the bell at the reception desk we could not get anyone to shine around to see if we needed anything.  Disappointing visit to a chain that usually provides a reasonable service for a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here recently because their website says they have truck and bus parking.  What they don’t say is that the truck and bus parking is not on their property but curbside on the local street — more than a little misleading and in our case it resulted in our having to park out of sight of our RV.  The room was reasonably clean but there were signs of water damage on the ceiling that had not been repaired.I was surprised that with numerous cars in the parking lot there were no other guests in the breakfast room in the morning.  When my wife poured soured milk out of the container meant for cereal we understood why.  The breakfast was really sub-par for what we have received at other locations of this same chain.  Also — during the breakfast hours there was no attendant present to take care of needs — in our case plasticware for use eating the waffle.  Even after using the bell at the reception desk we could not get anyone to shine around to see if we needed anything.  Disappointing visit to a chain that usually provides a reasonable service for a reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r453809346-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>453809346</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Comfortable beds and treated well</t>
+  </si>
+  <si>
+    <t>We had multiple rooms at two hotels and Super 8 was much better than the more expensive at taking care of people.  Nice management, comfortable and clean rooms.  Glad we have a few rooms here and will be back.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r431058125-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -366,6 +507,33 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r418953791-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>418953791</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Annual Stay</t>
+  </si>
+  <si>
+    <t>We are vendors at annual quilt shows in Stafford.  This motel is convenient to the Stafford Center.  Our room each time has been clean and comfortable.  The breakfast is minimal--waffles, bread for toast, packaged sweet roll, juice, coffee, tea, instant oatmeal; but it is enough for us.  the staff has always been friendly.  And, the price is right.  We did not use the internet, so can't comment on it.  The staff recommended an excellent Indian restaurant.  We do not look for 5-star accommodations--just comfort and convenience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r404922390-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>404922390</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r393610162-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -402,6 +570,49 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r371918469-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>371918469</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Showerhead Disgust</t>
+  </si>
+  <si>
+    <t>I've stayed at this Super 8 several times and each time I found the staff to be exceedingly helpful. I really enjoyed my stay wit the exception of the shower head in my room. The word Wyndham alone signifies extravagance superior and upscale, but that's not the case in this instance. One cannot clean, sanitize, and disinfect a shower and not notice the corroded nasty disgusting shower head. The purpose of a good hot shower? Then to see what or where the water comes out of really makes you wonder if a shower hot or not is good or clean.... I took pictures but there's place to add them here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this Super 8 several times and each time I found the staff to be exceedingly helpful. I really enjoyed my stay wit the exception of the shower head in my room. The word Wyndham alone signifies extravagance superior and upscale, but that's not the case in this instance. One cannot clean, sanitize, and disinfect a shower and not notice the corroded nasty disgusting shower head. The purpose of a good hot shower? Then to see what or where the water comes out of really makes you wonder if a shower hot or not is good or clean.... I took pictures but there's place to add them here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r367544484-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>367544484</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Unreal</t>
+  </si>
+  <si>
+    <t>I booked the Super 8 because of convenient location. I was to have surgery the following morning. I did my due diligence and read the reviews prior to making my final selection. Ive stayed at Super 8 in Dallas before and it was a good experience so I thought I would be fine. I came from 4 hours away and arrived late about 1:00 a.m. and the manager gives me a lecture about "what if" scenarios that would give him cause to give my room away with no refund. 
+I was to tired to tell him what I was thinking. I walked into the room and a intense malodorous fog of mold/mildew nearly knocked me out. Now I know it had been raining heavily the past few days, but upon closer inspection of the room I was not sure that potential water damage was to blame. From the pictures you can see some unusual growth festering on the A/C unit and the telephone was quite disgusting not to mention the toilet reeked of urine and as I looked on the side I saw a yellowish stain. Something like what my 8 year old nephew leaves behind when he goes potty. Last but not least the door has no latch!!!! How in the heck was I supposed to feel secure when it looks like someone has already kicked the door in?
+After complaining and complaining and complaining I was moved to...I booked the Super 8 because of convenient location. I was to have surgery the following morning. I did my due diligence and read the reviews prior to making my final selection. Ive stayed at Super 8 in Dallas before and it was a good experience so I thought I would be fine. I came from 4 hours away and arrived late about 1:00 a.m. and the manager gives me a lecture about "what if" scenarios that would give him cause to give my room away with no refund. I was to tired to tell him what I was thinking. I walked into the room and a intense malodorous fog of mold/mildew nearly knocked me out. Now I know it had been raining heavily the past few days, but upon closer inspection of the room I was not sure that potential water damage was to blame. From the pictures you can see some unusual growth festering on the A/C unit and the telephone was quite disgusting not to mention the toilet reeked of urine and as I looked on the side I saw a yellowish stain. Something like what my 8 year old nephew leaves behind when he goes potty. Last but not least the door has no latch!!!! How in the heck was I supposed to feel secure when it looks like someone has already kicked the door in?After complaining and complaining and complaining I was moved to a better room, but I will never return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked the Super 8 because of convenient location. I was to have surgery the following morning. I did my due diligence and read the reviews prior to making my final selection. Ive stayed at Super 8 in Dallas before and it was a good experience so I thought I would be fine. I came from 4 hours away and arrived late about 1:00 a.m. and the manager gives me a lecture about "what if" scenarios that would give him cause to give my room away with no refund. 
+I was to tired to tell him what I was thinking. I walked into the room and a intense malodorous fog of mold/mildew nearly knocked me out. Now I know it had been raining heavily the past few days, but upon closer inspection of the room I was not sure that potential water damage was to blame. From the pictures you can see some unusual growth festering on the A/C unit and the telephone was quite disgusting not to mention the toilet reeked of urine and as I looked on the side I saw a yellowish stain. Something like what my 8 year old nephew leaves behind when he goes potty. Last but not least the door has no latch!!!! How in the heck was I supposed to feel secure when it looks like someone has already kicked the door in?
+After complaining and complaining and complaining I was moved to...I booked the Super 8 because of convenient location. I was to have surgery the following morning. I did my due diligence and read the reviews prior to making my final selection. Ive stayed at Super 8 in Dallas before and it was a good experience so I thought I would be fine. I came from 4 hours away and arrived late about 1:00 a.m. and the manager gives me a lecture about "what if" scenarios that would give him cause to give my room away with no refund. I was to tired to tell him what I was thinking. I walked into the room and a intense malodorous fog of mold/mildew nearly knocked me out. Now I know it had been raining heavily the past few days, but upon closer inspection of the room I was not sure that potential water damage was to blame. From the pictures you can see some unusual growth festering on the A/C unit and the telephone was quite disgusting not to mention the toilet reeked of urine and as I looked on the side I saw a yellowish stain. Something like what my 8 year old nephew leaves behind when he goes potty. Last but not least the door has no latch!!!! How in the heck was I supposed to feel secure when it looks like someone has already kicked the door in?After complaining and complaining and complaining I was moved to a better room, but I will never return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r357631622-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -438,6 +649,39 @@
     <t>03/10/2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r352018626-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>352018626</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Comfortable beds,easy location off hwy59Great price with wyndham rewards.everything you need-iron,ironing board, microwave, fridge, coffee maker.Will stay again</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r349015329-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>349015329</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Still a nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my second stay at this property. The first time was about three years ago. They were really nice then -both staff and the rooms- and not much has changed. Service is still excellent, and the rooms are still very comfortable and spacious. Parking is ample. wi-fi is fast enough, and breakfast is continental but good for what it is. I did not use the pool on either of my stays - too cold. But it is a small pool. restaurants are close by, and property is close to interstate. Worth every penny I paid. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r348490968-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -453,9 +697,6 @@
     <t>In the area for a YRDG roller derby bootcamp and needed a room close to the venue for a quick overnight stay. This room was extremely affordable (especially splitting it with 2 other teammates), quiet, and offered complimentary coffee and breakfast (free waffles and bananas, ya'll!!!). We checked in late and left early and it was still a bargain! A+++ Nice people. Clean and quiet room. Can't beat the price.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -492,6 +733,39 @@
     <t>My wif and I have stayed here many time during the recent years and it is always a pleasure. The management and staff have always been pleasant and very helpful.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r337339250-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>337339250</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r327517394-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>327517394</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>ONLY PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>I had an early Dr appt so decided to get a room since we live in Bryan/ College Station to beat traffif. Upon aeeival we were treated AWESOME!!! Property was quite.And was so funny because when checking out and the owner found out where we lived he said his daughter goes to A&amp;M. I told him she needs storage ever to come to me and will be treated with the sane courtesy we were. After our convo we felt more like family than just another paying customer and that is how I treat my storage family (tenants) now going for my 1st round with chemo and ONLY place we will stay,MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I had an early Dr appt so decided to get a room since we live in Bryan/ College Station to beat traffif. Upon aeeival we were treated AWESOME!!! Property was quite.And was so funny because when checking out and the owner found out where we lived he said his daughter goes to A&amp;M. I told him she needs storage ever to come to me and will be treated with the sane courtesy we were. After our convo we felt more like family than just another paying customer and that is how I treat my storage family (tenants) now going for my 1st round with chemo and ONLY place we will stay,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r327012425-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -534,6 +808,39 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r310769796-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>310769796</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>PERFECT</t>
+  </si>
+  <si>
+    <t>Quiet, clean, comfortable, excellent Wi-Fi, and caring proprietors! What more can you ask for. We have stayed here many times and it is always consistent.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r310080889-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>310080889</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Addicted to the cinnamon rolls!</t>
+  </si>
+  <si>
+    <t>I am addicted to the cinnamon rolls, but on a more serious note..... This is the ONLY place we stay when we come to town. The owners know me by name, and are very quick to alleviate any problems there may be during our stay. A must-sleepover!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r298964312-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -543,9 +850,6 @@
     <t>08/13/2015</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r292892137-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -561,9 +865,6 @@
     <t>nice location and easy to get to.really nice setting and beautifully landscaped. clean inside and out. rooms were spacious with really comfortable beds.everything worked like it should.host were so friendly and helpful. breakfast was fresh and very good. we would stay here again.</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r292437943-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -573,6 +874,33 @@
     <t>07/25/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r283822014-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>283822014</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The beds were very comfortable ,the rooms very clean. The rooms are nice and big.My crew and I raved about the rooms and the staff. Friendly and prompt staff. The pool area is small but very well kept. We will stay here again whenever I have business in the Sugarland /Stafford area. Great restaurants in the area ,Walmart right around the corner.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r282478333-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>282478333</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r278857187-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -586,9 +914,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nothing fancy, but room was clean and comfortable.  Good proximity to both downtown and the Southland.  All-in-all, a great value. </t>
-  </si>
-  <si>
-    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r275409451-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
@@ -635,6 +960,33 @@
     <t>Hotel manager and his staff made my stay safe and peaceful. Property is well maintained and secured with cameras, my room was comfortable and clean.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r270755086-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>270755086</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>An OK stay, friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is in an older area of Stafford, and away from the freeway.  All in all, a fairly good stay.  But just expect a simple room and light breakfast.  A bit off the main road but adequate. I would stay here again if it was on special.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r267990319-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267990319</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r260623269-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -677,6 +1029,33 @@
     <t>Very clean and nice people running the hotel.  No noise from outside so easy to sleep.  Stayed there for a week and rooms always clean with cheerful staff.  Great place to stay with easy access to main roads!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r256421152-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>256421152</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>super8</t>
+  </si>
+  <si>
+    <t>it was very nice and the people were very friendly. Not to many TV stations to watch tho but what it was still ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r240961160-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>240961160</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r240109150-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -692,9 +1071,6 @@
     <t xml:space="preserve">my service was not as good as it use to be, but the room was great and the location including the amenidties  and what I like best about the hotel its in a good spot and peaceful always get goog sleep wifi always work a/c and heat always work front office always friendly </t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r240003538-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -719,15 +1095,33 @@
     <t>10/22/2014</t>
   </si>
   <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
     <t>This was a great place to stay. The bed was very comfortable and the room was clean and fairly newly remodeled. Breakfast was typical for a continental breakfast but adequate.</t>
   </si>
   <si>
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r234129347-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>234129347</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r230417764-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>230417764</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r229101524-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -737,9 +1131,6 @@
     <t>09/15/2014</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r223251027-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -761,6 +1152,39 @@
     <t>08/07/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r211333444-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>211333444</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>The owners were SUPER friendly!  The hotel was very clean and the continental breakfast was delicious. I highly recommend this hotel. Not overly expensive and we felt safe!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r210703069-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>210703069</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Raaw'el travels to Houston</t>
+  </si>
+  <si>
+    <t>I had a comfortable time staying at the hotel. Management was nice. The facility was clean and safe.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r209475121-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -770,9 +1194,6 @@
     <t>06/08/2014</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r209057740-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -800,6 +1221,39 @@
     <t>06/02/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r207847382-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207847382</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Super 8 ~ Super stay!</t>
+  </si>
+  <si>
+    <t>We have stayed in so many hotels over the years, mostly Super 8 (because of the cost), and I must say that this is the nicest of all.  The owners are wonderful... they remember us every time and they will go above and beyond to ensure our stay is pleasant.  I understand there are many, many hotels/motels out there that are 'yucky', but this one excels above all!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r207173173-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207173173</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Overall satisfied</t>
+  </si>
+  <si>
+    <t>I stayed super 8 stafford motel 10 days in April 2014. I was fully satisfied by the cleanliness of the facility and the service they provided. Their breakfast service was very impressive. Above all I was satisfied with the price compared to other places where I had stayed in my previous trips to Houston.I recommend this place to anyone who is looking for a better stay with a reasonable rate in this city.Premadasan KunhunniNew York</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r207022872-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -827,6 +1281,24 @@
     <t>05/19/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r203632327-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>203632327</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r203242653-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>203242653</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r201596028-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -842,9 +1314,6 @@
     <t xml:space="preserve">Very clean motel! Clean room, clean bathroom, and very nice people! Would love to stay there again!! </t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r199704990-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -866,6 +1335,27 @@
     <t>03/29/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r198212834-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198212834</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r196181232-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>196181232</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r195819955-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -875,9 +1365,6 @@
     <t>03/01/2014</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r194038793-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -899,6 +1386,30 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r188920952-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>188920952</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r186453204-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>186453204</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r185521330-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -914,9 +1425,6 @@
     <t xml:space="preserve">I really did not expect much from this stay. It was just a hotel to spend the night, nothing fancy. Wow, was I wrong. I was greeted warmly, given my room with no issues, and told where my room was. When I walked in the room was HUGE, clean and welcoming. We had plenty of towels, a fridge, microwave, coffee pot, iron and ironing board. Very happy with our stay and would stay here again if given the chance. </t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r185050061-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -935,6 +1443,42 @@
     <t>11/16/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r184426146-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184426146</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Excellent accommodations for the money</t>
+  </si>
+  <si>
+    <t>We didn't have any complaints at all about this Super 8. We will definitely stay there again on our next trip. We highly recommend this location. The rooms were clean. The staff was very friendly and helpful. The area was well kept and it was worth the cost of the room. The beds were comfortable. The refrigerator worked and so did the WiFi. We had stayed in a Motel 6 in San Antonio just before this and it was the difference between night and day. We had everything that we needed in our room. There were tissues, shampoo, WIFI, Cable, coffee in the room, etc. It was a pleasure to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We didn't have any complaints at all about this Super 8. We will definitely stay there again on our next trip. We highly recommend this location. The rooms were clean. The staff was very friendly and helpful. The area was well kept and it was worth the cost of the room. The beds were comfortable. The refrigerator worked and so did the WiFi. We had stayed in a Motel 6 in San Antonio just before this and it was the difference between night and day. We had everything that we needed in our room. There were tissues, shampoo, WIFI, Cable, coffee in the room, etc. It was a pleasure to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r181582588-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>181582588</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>A Great Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the great service at the front desk to the comfort of the room nothing could have been better. The front desk made me feel like I was at my own place and very accommodating. It was a very comfortable oversized room. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r180344242-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -944,9 +1488,6 @@
     <t>10/09/2013</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r176692626-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1521,33 @@
     <t>Location is in a commercial area but major freeways are close by. There are many restaurant options on Murphy Road. There's an on- site pool and all rooms have exterior entrances.  There are restaurants for every palate and you're 30 minutes from Houston (unless it's rush hour). The morning fare in the hotel lobby consists of cereal, waffle-maker and coffee.  There is a Subway nearby if you crave a breakfast sandwich. This hotel is definitely budget, one or two night stay, but it is clean, has a microwave and mini-fridge and front desk staff are friendly.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r173419497-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>173419497</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Clean and spacious room</t>
+  </si>
+  <si>
+    <t>Location is a couple of blocks away from US-59 in a rather uninteresting area, but there are lots of good restaurants only a few minutes away. My non-smoking one king bed room was very clean and with plenty of space. Liked the fridge (traveling with lots of snacks that needed some cooling off), and all the marble countertop type areas spread over the room to unload your stuff on. I would say that you get good value for your money when you stay here.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r172879476-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172879476</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r172275505-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -989,9 +1557,6 @@
     <t>08/14/2013</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r172143885-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1010,24 +1575,39 @@
     <t>08/05/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r168803844-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>168803844</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r168488396-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>168488396</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r168484130-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
     <t>168484130</t>
   </si>
   <si>
-    <t>07/21/2013</t>
-  </si>
-  <si>
     <t>Clean, quiet, average.</t>
   </si>
   <si>
     <t>Stayed a Saturday night with 3 friends.  Location is quiet, away from everything.  Pool is tiny.  Manager was friendly.  Didn't try the breakfast.  Room was clean.  Bathroom looked remodeled.  Tv was nice with limited channels.  Wifi worked fine.  Ac was cold.  The room was advertised as 2 queens suite with a sofabed.  The beds were NOT queens and the sofa did not turn into a bed.  Beds were a bit too soft.  Microwave, fridge, hair dryer and iron worked fine.  After returning that evening, the parking lot was nearly full, but found a spot and never heard any noise thru the night.  Overall, a good stay.</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r166828098-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1629,33 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r163024182-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>163024182</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>mr anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love this super 8 motel, when i come back i will stay there again, very good for every things </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r162459163-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162459163</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r161005297-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1064,9 +1671,6 @@
     <t>This motel was an outstanding value.  It has easy access if you are staying in the area with many restaurants close by.  The Staff was so friendly.  The property is clean and the room was spacious.  I would highly recommend this property for a value based motel stay.  Room was clean!</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r158270804-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1701,33 @@
     <t>I had to attend a planning meeting for a new client and project and wanted to be near the offices, as a health and safety professional that travels alot, I was very impressed with the hotel. It was well maintained and had a large, clean room with a king size bed. The linens were clean but worn and the bed okay. Internet speed was fine during the day, but as more guests logged on, slowed down. I didn't like the long wait for traffic to allow a left turn onto Murphy Road. Even with the middle turn lane as a buffer zone, the numerous vehicles turning into the various commerical properties near by was a hazard. I found the small love seat in the room to be very comfortable, and spent alot of time 'laid back' reading various materials for the project. Please don't tell the boss..."maybe even napped".  The microwave, minifridge and coffee pot in the room helped, fill the void. Subway and What-a-burger close by, but need to travel for any resturants. The typical breakfast, fare...would have like to see bagels or english muffins added, only bread for toast. Good selection of fresh fruits. I will be staying there again as I return for meetings with the clients.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r154913461-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154913461</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Good value and friendly service.</t>
+  </si>
+  <si>
+    <t>I made reservations online for my wife and I. The process was easy and trouble free. The staff was friendly and courteous. They greeted me with a smile and a hello on my arrival in the lobby and promptly check me into our room. They per the reservation offered and provided me with a second keycard for my wife with no fuss. The staff reviewed the checkout times and hours of the breakfast. They asked if I needed any other assistance and reminded me to just call the desk if we needed anything. The hotel is fairly new and in good condition. The room was spacious, nice, clean and odor free. The bedding was clean and in good condition. The TV was a nice flatscreen. Everything about the room was what I would expect. I made it to the breakfast in the morning. The breakfast selection was too limited but what was there was good and of good quality. Checkout was as quick easy and friendly as check in. I would recommend staying at this Super 8 if you need a hotel in Stafford or the surrounding area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made reservations online for my wife and I. The process was easy and trouble free. The staff was friendly and courteous. They greeted me with a smile and a hello on my arrival in the lobby and promptly check me into our room. They per the reservation offered and provided me with a second keycard for my wife with no fuss. The staff reviewed the checkout times and hours of the breakfast. They asked if I needed any other assistance and reminded me to just call the desk if we needed anything. The hotel is fairly new and in good condition. The room was spacious, nice, clean and odor free. The bedding was clean and in good condition. The TV was a nice flatscreen. Everything about the room was what I would expect. I made it to the breakfast in the morning. The breakfast selection was too limited but what was there was good and of good quality. Checkout was as quick easy and friendly as check in. I would recommend staying at this Super 8 if you need a hotel in Stafford or the surrounding area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r154000537-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154000537</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r152724763-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1764,33 @@
     <t>Check-in was exceptionally friendly. Hotel seemed new. Rooms were huge for a Super 8! Few construction worker guests, but no seedy characters...  fridge, micro, and nice flatscreen tv. Couch in the King bed room, and large bathroom area. Only complaints were slowwww internet, and could use a new mattress, though the sheets and blankets were clean. Room was $59 and definitely a value. The good reviews are accurate: one of the best Super 8's I've stayed in. Also, if you like middle eastern food, check out Kabob Cafe, about 4 miles away. Definitely appreciated a relaxing night after all the Houston traffic!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r143238032-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>143238032</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r142234459-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>142234459</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Great Rooms, Great Value!</t>
+  </si>
+  <si>
+    <t>This is the second time at this Motel.  It is in a very convenient location, the rooms are clean and attractive, free wi-fi, and all at a great price!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r136377979-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1843,42 @@
   </si>
   <si>
     <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r126727796-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126727796</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Off the highway quiet location</t>
+  </si>
+  <si>
+    <t>This motel is about a mile off the main highway and is in a very quiet location.  We had a large, clean, updated room with parking immediately outside our room.  This motel had a very friendly staff and was an excellent value, including extra coffee in the room, excellent TV and bath amenities. Breakfast was adequate consisting of various breads and juice.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r61812764-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>61812764</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Better than adequate -- no problems</t>
+  </si>
+  <si>
+    <t>The place was immaculate. Outside grounds policed, and room perfectly made up. Everything in the room worked, though one should check the fridge. It was set pretty warm -- possibly to save energy.The room was large, with a sitting area, a king bed, large flat screen TV and full-room-width bath area. The tub/shower had a good shower head.Continental breakfast is lackluster, as would be expected in a "motel."  Juices, a complex multi-drink coffee machine, bananas, cereal and some tired frozen pastries plus some plain bread for toasting. No bagels. They are doing a fine job here, and at $60/night, less a 10% AAA discount, we're very satisfied.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d530323-r34961986-Super_8_by_Wyndham_Stafford_Sugarland_Area-Stafford_Texas.html</t>
@@ -1751,16 +2445,20 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1783,7 +2481,9 @@
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1798,7 +2498,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1807,33 +2507,33 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
         <v>3</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1859,7 +2559,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1868,33 +2568,33 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="n">
         <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1905,9 +2605,7 @@
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>62</v>
-      </c>
+      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1922,7 +2620,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1931,31 +2629,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1977,7 +2681,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1986,44 +2690,46 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2038,7 +2744,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2047,39 +2753,41 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2087,7 +2795,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -2103,7 +2811,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2112,37 +2820,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2164,7 +2872,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2173,38 +2881,28 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" t="s">
         <v>86</v>
       </c>
-      <c r="L9" t="s">
-        <v>87</v>
-      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2214,9 +2912,7 @@
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2231,59 +2927,53 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>88</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>89</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
-      </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>92</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2298,36 +2988,38 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>5</v>
@@ -2344,7 +3036,9 @@
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2359,36 +3053,40 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>99</v>
       </c>
-      <c r="J12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
         <v>5</v>
@@ -2398,14 +3096,16 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2420,7 +3120,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2429,41 +3129,41 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>102</v>
       </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2471,7 +3171,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
@@ -2487,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2496,37 +3196,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2548,7 +3248,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2557,44 +3257,50 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
       <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2609,7 +3315,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2618,33 +3324,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2655,7 +3365,9 @@
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2670,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2679,44 +3391,50 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>126</v>
+      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
+      <c r="Y17" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2731,7 +3449,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2740,10 +3458,10 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2751,13 +3469,13 @@
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
@@ -2792,7 +3510,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2801,37 +3519,37 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2853,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2862,23 +3580,21 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
         <v>129</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>130</v>
       </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>131</v>
-      </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2901,9 +3617,7 @@
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>77</v>
-      </c>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2918,7 +3632,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2927,37 +3641,41 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2965,7 +3683,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
@@ -2981,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2990,44 +3708,46 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
+      <c r="Y22" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3042,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3051,38 +3771,34 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -3093,7 +3809,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -3109,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3118,40 +3834,44 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" t="s">
-        <v>151</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3166,7 +3886,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3175,50 +3895,44 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
         <v>155</v>
       </c>
-      <c r="K25" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>152</v>
-      </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
-      <c r="Y25" t="s">
-        <v>157</v>
-      </c>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3233,7 +3947,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3242,37 +3956,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3294,48 +4008,58 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>162</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" t="s">
-        <v>165</v>
-      </c>
-      <c r="L27" t="s">
-        <v>166</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>167</v>
-      </c>
       <c r="O27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -3374,10 +4098,10 @@
         <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
         <v>4</v>
@@ -3390,7 +4114,7 @@
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3429,29 +4153,29 @@
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
         <v>175</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3487,45 +4211,39 @@
       <c r="J30" t="s">
         <v>178</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>179</v>
       </c>
-      <c r="L30" t="s">
-        <v>180</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>181</v>
-      </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>180</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3540,46 +4258,46 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" t="s">
         <v>182</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" t="s">
-        <v>184</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3601,58 +4319,56 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>185</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>186</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>187</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>188</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
         <v>189</v>
       </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>190</v>
-      </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
@@ -3689,37 +4405,27 @@
         <v>195</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34">
@@ -3735,34 +4441,32 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>198</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>199</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>200</v>
       </c>
-      <c r="K34" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" t="s">
-        <v>202</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>196</v>
-      </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3786,7 +4490,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -3802,46 +4506,46 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
         <v>203</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>204</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>205</v>
       </c>
-      <c r="K35" t="s">
-        <v>206</v>
-      </c>
-      <c r="L35" t="s">
-        <v>207</v>
-      </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3849,7 +4553,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
@@ -3865,7 +4569,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3874,37 +4578,37 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3926,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3935,37 +4639,41 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J37" t="s">
         <v>211</v>
       </c>
       <c r="K37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="n">
         <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3973,7 +4681,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
@@ -3989,37 +4697,37 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" t="s">
         <v>217</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>218</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>219</v>
       </c>
-      <c r="K38" t="s">
-        <v>220</v>
-      </c>
-      <c r="L38" t="s">
-        <v>221</v>
-      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
@@ -4028,11 +4736,11 @@
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4040,7 +4748,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
@@ -4056,46 +4764,46 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J39" t="s">
+        <v>222</v>
+      </c>
+      <c r="K39" t="s">
         <v>223</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>224</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39" t="s">
         <v>225</v>
       </c>
-      <c r="K39" t="s">
-        <v>226</v>
-      </c>
-      <c r="L39" t="s">
-        <v>227</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>222</v>
-      </c>
-      <c r="O39" t="s">
-        <v>51</v>
-      </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4107,7 +4815,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
@@ -4123,58 +4831,48 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" t="s">
         <v>228</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>229</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>230</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
         <v>231</v>
       </c>
-      <c r="L40" t="s">
-        <v>232</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>233</v>
-      </c>
       <c r="O40" t="s">
-        <v>82</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
@@ -4190,30 +4888,34 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" t="s">
         <v>234</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>235</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>236</v>
       </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4236,7 +4938,9 @@
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
+      <c r="Y41" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4251,47 +4955,41 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
         <v>238</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>239</v>
-      </c>
-      <c r="J42" t="s">
-        <v>240</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
@@ -4312,53 +5010,53 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
         <v>242</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>243</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>244</v>
       </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+      <c r="L43" t="s">
+        <v>245</v>
+      </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="Y43" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4373,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4382,37 +5080,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J44" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4434,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4443,49 +5141,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K45" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L45" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46">
@@ -4501,7 +5189,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4510,10 +5198,10 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J46" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4521,19 +5209,19 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -4562,7 +5250,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4571,44 +5259,50 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J47" t="s">
-        <v>260</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="K47" t="s">
+        <v>265</v>
+      </c>
+      <c r="L47" t="s">
+        <v>266</v>
+      </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O47" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4623,7 +5317,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4632,21 +5326,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
-      </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
+        <v>270</v>
+      </c>
+      <c r="K48" t="s">
+        <v>271</v>
+      </c>
+      <c r="L48" t="s">
+        <v>272</v>
+      </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4655,21 +5353,23 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
+      <c r="Y48" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4684,7 +5384,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4693,10 +5393,10 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="J49" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4704,10 +5404,10 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="O49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4716,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -4745,7 +5445,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4754,41 +5454,41 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
         <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4796,7 +5496,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51">
@@ -4812,7 +5512,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4821,37 +5521,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J51" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
         <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4873,7 +5573,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4882,44 +5582,44 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="J52" t="s">
-        <v>279</v>
-      </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+        <v>286</v>
+      </c>
+      <c r="K52" t="s">
+        <v>287</v>
+      </c>
+      <c r="L52" t="s">
+        <v>288</v>
+      </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="O52" t="s">
-        <v>51</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
+      <c r="Y52" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4934,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4943,37 +5643,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="J53" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -4995,7 +5695,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5004,21 +5704,25 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J54" t="s">
-        <v>286</v>
-      </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
+        <v>295</v>
+      </c>
+      <c r="K54" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" t="s">
+        <v>297</v>
+      </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5030,18 +5734,20 @@
         <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
+      <c r="Y54" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5056,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5065,21 +5771,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="J55" t="s">
-        <v>289</v>
-      </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+        <v>300</v>
+      </c>
+      <c r="K55" t="s">
+        <v>301</v>
+      </c>
+      <c r="L55" t="s">
+        <v>302</v>
+      </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5102,7 +5812,9 @@
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="Y55" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5117,7 +5829,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5126,25 +5838,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="J56" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="K56" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5153,7 +5865,7 @@
         <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -5168,7 +5880,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
@@ -5184,7 +5896,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5193,44 +5905,46 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="J57" t="s">
-        <v>299</v>
-      </c>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
+        <v>312</v>
+      </c>
+      <c r="K57" t="s">
+        <v>313</v>
+      </c>
+      <c r="L57" t="s">
+        <v>314</v>
+      </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="O57" t="s">
-        <v>51</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
+      <c r="Y57" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5245,7 +5959,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5254,24 +5968,24 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="J58" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="O58" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
         <v>4</v>
@@ -5284,7 +5998,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5306,7 +6020,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5315,42 +6029,46 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="J59" t="s">
-        <v>305</v>
-      </c>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
+        <v>321</v>
+      </c>
+      <c r="K59" t="s">
+        <v>322</v>
+      </c>
+      <c r="L59" t="s">
+        <v>323</v>
+      </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="O59" t="s">
-        <v>76</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
+      <c r="Y59" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5365,7 +6083,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5374,50 +6092,44 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
-      </c>
-      <c r="K60" t="s">
-        <v>310</v>
-      </c>
-      <c r="L60" t="s">
-        <v>311</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="O60" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
-      <c r="Y60" t="s">
-        <v>311</v>
-      </c>
+      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5432,7 +6144,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5441,38 +6153,34 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="J61" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L61" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="O61" t="s">
-        <v>76</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
         <v>5</v>
       </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -5483,7 +6191,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62">
@@ -5499,7 +6207,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5508,21 +6216,25 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="J62" t="s">
-        <v>320</v>
-      </c>
-      <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
+        <v>335</v>
+      </c>
+      <c r="K62" t="s">
+        <v>336</v>
+      </c>
+      <c r="L62" t="s">
+        <v>337</v>
+      </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5545,7 +6257,9 @@
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
+      <c r="Y62" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5560,7 +6274,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5569,44 +6283,48 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
+      <c r="L63" t="s">
+        <v>94</v>
+      </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
+      <c r="Y63" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5621,7 +6339,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5630,44 +6348,50 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
-      </c>
-      <c r="K64" t="s"/>
-      <c r="L64" t="s"/>
+        <v>344</v>
+      </c>
+      <c r="K64" t="s">
+        <v>345</v>
+      </c>
+      <c r="L64" t="s">
+        <v>346</v>
+      </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="O64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R64" t="n">
         <v>4</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
+      <c r="Y64" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5682,7 +6406,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5691,41 +6415,41 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="J65" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="K65" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="L65" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="O65" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>4</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -5733,7 +6457,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
@@ -5749,7 +6473,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -5758,44 +6482,50 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="J66" t="s">
-        <v>336</v>
-      </c>
-      <c r="K66" t="s"/>
-      <c r="L66" t="s"/>
+        <v>354</v>
+      </c>
+      <c r="K66" t="s">
+        <v>287</v>
+      </c>
+      <c r="L66" t="s">
+        <v>355</v>
+      </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="O66" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
+      <c r="Y66" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5810,7 +6540,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -5819,37 +6549,37 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="J67" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="O67" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -5871,7 +6601,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -5880,25 +6610,21 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="J68" t="s">
-        <v>343</v>
-      </c>
-      <c r="K68" t="s">
-        <v>344</v>
-      </c>
-      <c r="L68" t="s">
-        <v>345</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="O68" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -5907,10 +6633,10 @@
         <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
@@ -5921,9 +6647,7 @@
       </c>
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
-      <c r="Y68" t="s">
-        <v>345</v>
-      </c>
+      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5938,7 +6662,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -5947,37 +6671,37 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="J69" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="O69" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -5999,7 +6723,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6008,34 +6732,30 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="J70" t="s">
-        <v>353</v>
-      </c>
-      <c r="K70" t="s">
-        <v>354</v>
-      </c>
-      <c r="L70" t="s">
-        <v>355</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="O70" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -6049,9 +6769,7 @@
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
-      <c r="Y70" t="s">
-        <v>356</v>
-      </c>
+      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6066,7 +6784,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6075,37 +6793,37 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="J71" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="O71" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -6127,7 +6845,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6136,44 +6854,50 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="J72" t="s">
-        <v>363</v>
-      </c>
-      <c r="K72" t="s"/>
-      <c r="L72" t="s"/>
+        <v>376</v>
+      </c>
+      <c r="K72" t="s">
+        <v>377</v>
+      </c>
+      <c r="L72" t="s">
+        <v>378</v>
+      </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="O72" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
+      <c r="Y72" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6188,7 +6912,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6197,37 +6921,41 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="J73" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K73" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="L73" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
+      <c r="N73" t="s">
+        <v>379</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
       <c r="P73" t="n">
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
         <v>4</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6235,7 +6963,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74">
@@ -6251,7 +6979,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6260,50 +6988,44 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="J74" t="s">
-        <v>371</v>
-      </c>
-      <c r="K74" t="s">
-        <v>372</v>
-      </c>
-      <c r="L74" t="s">
-        <v>373</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="O74" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R74" t="n">
         <v>3</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
-      <c r="Y74" t="s">
-        <v>375</v>
-      </c>
+      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6318,7 +7040,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -6327,30 +7049,34 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J75" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="K75" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L75" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
+      <c r="N75" t="s">
+        <v>393</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S75" t="n">
         <v>4</v>
@@ -6365,7 +7091,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76">
@@ -6381,7 +7107,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -6390,50 +7116,44 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="J76" t="s">
-        <v>383</v>
-      </c>
-      <c r="K76" t="s">
-        <v>384</v>
-      </c>
-      <c r="L76" t="s">
-        <v>385</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="O76" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="n">
         <v>4</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
         <v>4</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
-      <c r="Y76" t="s">
-        <v>385</v>
-      </c>
+      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6448,7 +7168,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -6457,39 +7177,41 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J77" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K77" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L77" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O77" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q77" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -6497,7 +7219,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78">
@@ -6513,7 +7235,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -6522,31 +7244,31 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="J78" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K78" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L78" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="O78" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R78" t="n">
         <v>4</v>
@@ -6564,7 +7286,3289 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>399</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>409</v>
+      </c>
+      <c r="J79" t="s">
+        <v>410</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>393</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>411</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>412</v>
+      </c>
+      <c r="J80" t="s">
+        <v>413</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>393</v>
+      </c>
+      <c r="O80" t="s">
+        <v>95</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>415</v>
+      </c>
+      <c r="J81" t="s">
+        <v>416</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>393</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>418</v>
+      </c>
+      <c r="J82" t="s">
+        <v>419</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>407</v>
+      </c>
+      <c r="O82" t="s">
+        <v>58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>420</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>421</v>
+      </c>
+      <c r="J83" t="s">
+        <v>422</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>407</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>423</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>424</v>
+      </c>
+      <c r="J84" t="s">
+        <v>425</v>
+      </c>
+      <c r="K84" t="s">
+        <v>426</v>
+      </c>
+      <c r="L84" t="s">
+        <v>427</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>407</v>
+      </c>
+      <c r="O84" t="s">
+        <v>58</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>428</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>429</v>
+      </c>
+      <c r="J85" t="s">
+        <v>430</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>431</v>
+      </c>
+      <c r="O85" t="s">
+        <v>58</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>432</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>433</v>
+      </c>
+      <c r="J86" t="s">
+        <v>434</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>431</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>435</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>436</v>
+      </c>
+      <c r="J87" t="s">
+        <v>437</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>431</v>
+      </c>
+      <c r="O87" t="s">
+        <v>58</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>439</v>
+      </c>
+      <c r="J88" t="s">
+        <v>440</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>441</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>442</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>443</v>
+      </c>
+      <c r="J89" t="s">
+        <v>444</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>441</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>446</v>
+      </c>
+      <c r="J90" t="s">
+        <v>447</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>441</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>448</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>449</v>
+      </c>
+      <c r="J91" t="s">
+        <v>450</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>451</v>
+      </c>
+      <c r="O91" t="s">
+        <v>58</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>452</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>453</v>
+      </c>
+      <c r="J92" t="s">
+        <v>454</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>455</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>456</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>457</v>
+      </c>
+      <c r="J93" t="s">
+        <v>458</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>459</v>
+      </c>
+      <c r="O93" t="s">
+        <v>95</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>460</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>461</v>
+      </c>
+      <c r="J94" t="s">
+        <v>462</v>
+      </c>
+      <c r="K94" t="s">
+        <v>463</v>
+      </c>
+      <c r="L94" t="s">
+        <v>464</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>459</v>
+      </c>
+      <c r="O94" t="s">
+        <v>58</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>465</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>466</v>
+      </c>
+      <c r="J95" t="s">
+        <v>467</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>459</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>468</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>469</v>
+      </c>
+      <c r="J96" t="s">
+        <v>470</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>459</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>471</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>472</v>
+      </c>
+      <c r="J97" t="s">
+        <v>473</v>
+      </c>
+      <c r="K97" t="s">
+        <v>474</v>
+      </c>
+      <c r="L97" t="s">
+        <v>475</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>476</v>
+      </c>
+      <c r="O97" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>478</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>479</v>
+      </c>
+      <c r="J98" t="s">
+        <v>480</v>
+      </c>
+      <c r="K98" t="s">
+        <v>481</v>
+      </c>
+      <c r="L98" t="s">
+        <v>482</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>483</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>484</v>
+      </c>
+      <c r="J99" t="s">
+        <v>485</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>476</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>486</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>487</v>
+      </c>
+      <c r="J100" t="s">
+        <v>488</v>
+      </c>
+      <c r="K100" t="s">
+        <v>489</v>
+      </c>
+      <c r="L100" t="s">
+        <v>490</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>491</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>492</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>493</v>
+      </c>
+      <c r="J101" t="s">
+        <v>494</v>
+      </c>
+      <c r="K101" t="s">
+        <v>495</v>
+      </c>
+      <c r="L101" t="s">
+        <v>496</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>491</v>
+      </c>
+      <c r="O101" t="s">
+        <v>95</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>497</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>498</v>
+      </c>
+      <c r="J102" t="s">
+        <v>499</v>
+      </c>
+      <c r="K102" t="s">
+        <v>500</v>
+      </c>
+      <c r="L102" t="s">
+        <v>501</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>502</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>503</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>504</v>
+      </c>
+      <c r="J103" t="s">
+        <v>505</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>502</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>506</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>507</v>
+      </c>
+      <c r="J104" t="s">
+        <v>508</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>502</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>509</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>510</v>
+      </c>
+      <c r="J105" t="s">
+        <v>511</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>502</v>
+      </c>
+      <c r="O105" t="s">
+        <v>95</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>512</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>513</v>
+      </c>
+      <c r="J106" t="s">
+        <v>514</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>502</v>
+      </c>
+      <c r="O106" t="s">
+        <v>63</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>515</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>516</v>
+      </c>
+      <c r="J107" t="s">
+        <v>517</v>
+      </c>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s"/>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>518</v>
+      </c>
+      <c r="O107" t="s">
+        <v>63</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>519</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>520</v>
+      </c>
+      <c r="J108" t="s">
+        <v>521</v>
+      </c>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s"/>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>518</v>
+      </c>
+      <c r="O108" t="s">
+        <v>63</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>522</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>523</v>
+      </c>
+      <c r="J109" t="s">
+        <v>521</v>
+      </c>
+      <c r="K109" t="s">
+        <v>524</v>
+      </c>
+      <c r="L109" t="s">
+        <v>525</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>518</v>
+      </c>
+      <c r="O109" t="s">
+        <v>225</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>526</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>527</v>
+      </c>
+      <c r="J110" t="s">
+        <v>528</v>
+      </c>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s"/>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>518</v>
+      </c>
+      <c r="O110" t="s">
+        <v>58</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>529</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>530</v>
+      </c>
+      <c r="J111" t="s">
+        <v>531</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>532</v>
+      </c>
+      <c r="O111" t="s">
+        <v>58</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>533</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>534</v>
+      </c>
+      <c r="J112" t="s">
+        <v>535</v>
+      </c>
+      <c r="K112" t="s">
+        <v>536</v>
+      </c>
+      <c r="L112" t="s">
+        <v>537</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>532</v>
+      </c>
+      <c r="O112" t="s">
+        <v>95</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>538</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>539</v>
+      </c>
+      <c r="J113" t="s">
+        <v>540</v>
+      </c>
+      <c r="K113" t="s"/>
+      <c r="L113" t="s"/>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>541</v>
+      </c>
+      <c r="O113" t="s">
+        <v>63</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>542</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>543</v>
+      </c>
+      <c r="J114" t="s">
+        <v>544</v>
+      </c>
+      <c r="K114" t="s">
+        <v>545</v>
+      </c>
+      <c r="L114" t="s">
+        <v>546</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>541</v>
+      </c>
+      <c r="O114" t="s">
+        <v>63</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>547</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>548</v>
+      </c>
+      <c r="J115" t="s">
+        <v>549</v>
+      </c>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>550</v>
+      </c>
+      <c r="O115" t="s">
+        <v>225</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>551</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>552</v>
+      </c>
+      <c r="J116" t="s">
+        <v>553</v>
+      </c>
+      <c r="K116" t="s">
+        <v>554</v>
+      </c>
+      <c r="L116" t="s">
+        <v>555</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>550</v>
+      </c>
+      <c r="O116" t="s">
+        <v>63</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>557</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>558</v>
+      </c>
+      <c r="J117" t="s">
+        <v>559</v>
+      </c>
+      <c r="K117" t="s">
+        <v>560</v>
+      </c>
+      <c r="L117" t="s">
+        <v>561</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>550</v>
+      </c>
+      <c r="O117" t="s">
+        <v>95</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>563</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>564</v>
+      </c>
+      <c r="J118" t="s">
+        <v>565</v>
+      </c>
+      <c r="K118" t="s"/>
+      <c r="L118" t="s"/>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>550</v>
+      </c>
+      <c r="O118" t="s">
+        <v>95</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>566</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>567</v>
+      </c>
+      <c r="J119" t="s">
+        <v>568</v>
+      </c>
+      <c r="K119" t="s"/>
+      <c r="L119" t="s"/>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>569</v>
+      </c>
+      <c r="O119" t="s">
+        <v>63</v>
+      </c>
+      <c r="P119" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>570</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>571</v>
+      </c>
+      <c r="J120" t="s">
+        <v>572</v>
+      </c>
+      <c r="K120" t="s"/>
+      <c r="L120" t="s"/>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>569</v>
+      </c>
+      <c r="O120" t="s">
+        <v>63</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>4</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>573</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>574</v>
+      </c>
+      <c r="J121" t="s">
+        <v>575</v>
+      </c>
+      <c r="K121" t="s">
+        <v>576</v>
+      </c>
+      <c r="L121" t="s">
+        <v>577</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>578</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>579</v>
+      </c>
+      <c r="J122" t="s">
+        <v>580</v>
+      </c>
+      <c r="K122" t="s"/>
+      <c r="L122" t="s"/>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s">
+        <v>581</v>
+      </c>
+      <c r="O122" t="s">
+        <v>58</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>582</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>583</v>
+      </c>
+      <c r="J123" t="s">
+        <v>584</v>
+      </c>
+      <c r="K123" t="s">
+        <v>585</v>
+      </c>
+      <c r="L123" t="s">
+        <v>586</v>
+      </c>
+      <c r="M123" t="n">
+        <v>5</v>
+      </c>
+      <c r="N123" t="s">
+        <v>581</v>
+      </c>
+      <c r="O123" t="s">
+        <v>95</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>587</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>588</v>
+      </c>
+      <c r="J124" t="s">
+        <v>589</v>
+      </c>
+      <c r="K124" t="s">
+        <v>590</v>
+      </c>
+      <c r="L124" t="s">
+        <v>591</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
+        <v>592</v>
+      </c>
+      <c r="O124" t="s">
+        <v>58</v>
+      </c>
+      <c r="P124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>3</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>594</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>595</v>
+      </c>
+      <c r="J125" t="s">
+        <v>596</v>
+      </c>
+      <c r="K125" t="s">
+        <v>597</v>
+      </c>
+      <c r="L125" t="s">
+        <v>598</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="s"/>
+      <c r="O125" t="s"/>
+      <c r="P125" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>3</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>4</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>599</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" t="s">
+        <v>600</v>
+      </c>
+      <c r="J126" t="s">
+        <v>601</v>
+      </c>
+      <c r="K126" t="s">
+        <v>602</v>
+      </c>
+      <c r="L126" t="s">
+        <v>603</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="s">
+        <v>604</v>
+      </c>
+      <c r="O126" t="s">
+        <v>63</v>
+      </c>
+      <c r="P126" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4</v>
+      </c>
+      <c r="T126" t="s"/>
+      <c r="U126" t="n">
+        <v>5</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s"/>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B127" t="s"/>
+      <c r="C127" t="s"/>
+      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" t="s">
+        <v>605</v>
+      </c>
+      <c r="G127" t="s">
+        <v>46</v>
+      </c>
+      <c r="H127" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" t="s">
+        <v>606</v>
+      </c>
+      <c r="J127" t="s">
+        <v>607</v>
+      </c>
+      <c r="K127" t="s">
+        <v>608</v>
+      </c>
+      <c r="L127" t="s">
+        <v>609</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="s">
+        <v>610</v>
+      </c>
+      <c r="O127" t="s">
+        <v>95</v>
+      </c>
+      <c r="P127" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5</v>
+      </c>
+      <c r="T127" t="s"/>
+      <c r="U127" t="n">
+        <v>5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="s"/>
+      <c r="X127" t="s"/>
+      <c r="Y127" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B128" t="s"/>
+      <c r="C128" t="s"/>
+      <c r="D128" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
+        <v>611</v>
+      </c>
+      <c r="G128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" t="s">
+        <v>612</v>
+      </c>
+      <c r="J128" t="s">
+        <v>613</v>
+      </c>
+      <c r="K128" t="s">
+        <v>614</v>
+      </c>
+      <c r="L128" t="s">
+        <v>615</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="s">
+        <v>616</v>
+      </c>
+      <c r="O128" t="s">
+        <v>95</v>
+      </c>
+      <c r="P128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>3</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>5</v>
+      </c>
+      <c r="T128" t="s"/>
+      <c r="U128" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="s"/>
+      <c r="X128" t="s"/>
+      <c r="Y128" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B129" t="s"/>
+      <c r="C129" t="s"/>
+      <c r="D129" t="n">
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>617</v>
+      </c>
+      <c r="G129" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129" t="s">
+        <v>618</v>
+      </c>
+      <c r="J129" t="s">
+        <v>619</v>
+      </c>
+      <c r="K129" t="s">
+        <v>620</v>
+      </c>
+      <c r="L129" t="s">
+        <v>621</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
+        <v>622</v>
+      </c>
+      <c r="O129" t="s">
+        <v>63</v>
+      </c>
+      <c r="P129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q129" t="s"/>
+      <c r="R129" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" t="n">
+        <v>2</v>
+      </c>
+      <c r="T129" t="s"/>
+      <c r="U129" t="n">
+        <v>2</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="s"/>
+      <c r="X129" t="s"/>
+      <c r="Y129" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B130" t="s"/>
+      <c r="C130" t="s"/>
+      <c r="D130" t="n">
+        <v>129</v>
+      </c>
+      <c r="E130" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" t="s">
+        <v>623</v>
+      </c>
+      <c r="G130" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" t="s">
+        <v>47</v>
+      </c>
+      <c r="I130" t="s">
+        <v>624</v>
+      </c>
+      <c r="J130" t="s">
+        <v>625</v>
+      </c>
+      <c r="K130" t="s">
+        <v>626</v>
+      </c>
+      <c r="L130" t="s">
+        <v>627</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="s">
+        <v>628</v>
+      </c>
+      <c r="O130" t="s">
+        <v>58</v>
+      </c>
+      <c r="P130" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>4</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>5</v>
+      </c>
+      <c r="T130" t="s"/>
+      <c r="U130" t="n">
+        <v>5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" t="s"/>
+      <c r="X130" t="s"/>
+      <c r="Y130" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
